--- a/inst/extdata/stressor_response_fixed_ARTR.xlsx
+++ b/inst/extdata/stressor_response_fixed_ARTR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F66E488-F640-4ACD-8496-A4051BF55291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99A4FC-F9CC-44AC-8378-4BDEC0381EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2820" yWindow="12492" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2052" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -46,8 +46,54 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{C0A0D69D-3A5D-440B-8D2B-3BAE5A0A4563}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Choose either:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>All
+Population Model
+Joe Model</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="51">
   <si>
     <t>Stressors</t>
   </si>
@@ -186,12 +232,27 @@
   <si>
     <t>sub_adult</t>
   </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Population Model</t>
+  </si>
+  <si>
+    <t>Joe Model</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +275,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +324,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
@@ -277,10 +370,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15039,11 +15139,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15055,10 +15155,12 @@
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="8"/>
+    <col min="10" max="10" width="16.44140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -15077,40 +15179,50 @@
       <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="I1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -15132,11 +15244,15 @@
       <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -15158,34 +15274,42 @@
       <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -15207,8 +15331,12 @@
       <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -15230,8 +15358,11 @@
       <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -15253,8 +15384,11 @@
       <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -15276,8 +15410,11 @@
       <c r="G9" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -15299,8 +15436,11 @@
       <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -15322,8 +15462,11 @@
       <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -15345,8 +15488,11 @@
       <c r="G12" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -15368,8 +15514,11 @@
       <c r="G13" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -15391,8 +15540,11 @@
       <c r="G14" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -15414,8 +15566,11 @@
       <c r="G15" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -15437,34 +15592,40 @@
       <c r="G16" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J17" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -15486,11 +15647,14 @@
       <c r="G18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J18" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -15512,8 +15676,11 @@
       <c r="G19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -15522,6 +15689,7 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;11&amp;K000000Classification: Protected A</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16547,7 +16715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/stressor_response_fixed_ARTR.xlsx
+++ b/inst/extdata/stressor_response_fixed_ARTR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99A4FC-F9CC-44AC-8378-4BDEC0381EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B8AB36-E7B6-4F30-B7A0-3A80A04D0831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2052" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -52,6 +52,19 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{D2E21D16-B8FA-41F1-91D3-B0E325B64EE3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Possible interaction terms include 'NA', 'Additive' or 'Minimum'. Interaction terms are only relevant for stressors groups in the Stressor_cat column. For example, in some instances, different types of mortality from recreational fishing, consumptive use etc. may be grouped as a common variables ‘Total_Mortality’ in the Stressor_cat and the overall effect will be additive between them for that single term.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J1" authorId="0" shapeId="0" xr:uid="{C0A0D69D-3A5D-440B-8D2B-3BAE5A0A4563}">
       <text>
         <r>
@@ -15143,7 +15156,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
